--- a/src/main/resources/cam售后相关问题 .xlsx
+++ b/src/main/resources/cam售后相关问题 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14560"/>
+    <workbookView windowWidth="29100" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="英文" sheetId="2" r:id="rId1"/>
